--- a/experiments/pg/return_discount_increment/mlp_3x182_max_prefix_time_no_clip_grad_step_3e_4_norm_time/oracle_buffer.xlsx
+++ b/experiments/pg/return_discount_increment/mlp_3x182_max_prefix_time_no_clip_grad_step_3e_4_norm_time/oracle_buffer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2655"/>
+  <dimension ref="A1:C2664"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34947,6 +34947,123 @@
         <v>15.01457377389057</v>
       </c>
     </row>
+    <row r="2656">
+      <c r="A2656" s="1" t="n">
+        <v>2654</v>
+      </c>
+      <c r="B2656" t="inlineStr">
+        <is>
+          <t>[2, 7, -2]</t>
+        </is>
+      </c>
+      <c r="C2656" t="n">
+        <v>15.47987207484077</v>
+      </c>
+    </row>
+    <row r="2657">
+      <c r="A2657" s="1" t="n">
+        <v>2655</v>
+      </c>
+      <c r="B2657" t="inlineStr">
+        <is>
+          <t>[2, 7, -3]</t>
+        </is>
+      </c>
+      <c r="C2657" t="n">
+        <v>14.69790549296174</v>
+      </c>
+    </row>
+    <row r="2658">
+      <c r="A2658" s="1" t="n">
+        <v>2656</v>
+      </c>
+      <c r="B2658" t="inlineStr">
+        <is>
+          <t>[3, 7, -2]</t>
+        </is>
+      </c>
+      <c r="C2658" t="n">
+        <v>14.4395085278223</v>
+      </c>
+    </row>
+    <row r="2659">
+      <c r="A2659" s="1" t="n">
+        <v>2657</v>
+      </c>
+      <c r="B2659" t="inlineStr">
+        <is>
+          <t>[7, 7, 0]</t>
+        </is>
+      </c>
+      <c r="C2659" t="n">
+        <v>14.74326922834779</v>
+      </c>
+    </row>
+    <row r="2660">
+      <c r="A2660" s="1" t="n">
+        <v>2658</v>
+      </c>
+      <c r="B2660" t="inlineStr">
+        <is>
+          <t>[3, 6, -3]</t>
+        </is>
+      </c>
+      <c r="C2660" t="n">
+        <v>14.23435105658816</v>
+      </c>
+    </row>
+    <row r="2661">
+      <c r="A2661" s="1" t="n">
+        <v>2659</v>
+      </c>
+      <c r="B2661" t="inlineStr">
+        <is>
+          <t>[4, 7, -3]</t>
+        </is>
+      </c>
+      <c r="C2661" t="n">
+        <v>13.99555079163754</v>
+      </c>
+    </row>
+    <row r="2662">
+      <c r="A2662" s="1" t="n">
+        <v>2660</v>
+      </c>
+      <c r="B2662" t="inlineStr">
+        <is>
+          <t>[4, 7, -4]</t>
+        </is>
+      </c>
+      <c r="C2662" t="n">
+        <v>13.9955250171308</v>
+      </c>
+    </row>
+    <row r="2663">
+      <c r="A2663" s="1" t="n">
+        <v>2661</v>
+      </c>
+      <c r="B2663" t="inlineStr">
+        <is>
+          <t>[4, -3, 7]</t>
+        </is>
+      </c>
+      <c r="C2663" t="n">
+        <v>13.99555079164514</v>
+      </c>
+    </row>
+    <row r="2664">
+      <c r="A2664" s="1" t="n">
+        <v>2662</v>
+      </c>
+      <c r="B2664" t="inlineStr">
+        <is>
+          <t>[5, -3, 7]</t>
+        </is>
+      </c>
+      <c r="C2664" t="n">
+        <v>13.97954276351756</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/experiments/pg/return_discount_increment/mlp_3x182_max_prefix_time_no_clip_grad_step_3e_4_norm_time/oracle_buffer.xlsx
+++ b/experiments/pg/return_discount_increment/mlp_3x182_max_prefix_time_no_clip_grad_step_3e_4_norm_time/oracle_buffer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2664"/>
+  <dimension ref="A1:C2707"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35064,6 +35064,565 @@
         <v>13.97954276351756</v>
       </c>
     </row>
+    <row r="2665">
+      <c r="A2665" s="1" t="n">
+        <v>2663</v>
+      </c>
+      <c r="B2665" t="inlineStr">
+        <is>
+          <t>[5, 1, -2]</t>
+        </is>
+      </c>
+      <c r="C2665" t="n">
+        <v>14.16272933284555</v>
+      </c>
+    </row>
+    <row r="2666">
+      <c r="A2666" s="1" t="n">
+        <v>2664</v>
+      </c>
+      <c r="B2666" t="inlineStr">
+        <is>
+          <t>[5, 2, -3]</t>
+        </is>
+      </c>
+      <c r="C2666" t="n">
+        <v>14.10630508271704</v>
+      </c>
+    </row>
+    <row r="2667">
+      <c r="A2667" s="1" t="n">
+        <v>2665</v>
+      </c>
+      <c r="B2667" t="inlineStr">
+        <is>
+          <t>[7, -1, 1]</t>
+        </is>
+      </c>
+      <c r="C2667" t="n">
+        <v>14.68218937855073</v>
+      </c>
+    </row>
+    <row r="2668">
+      <c r="A2668" s="1" t="n">
+        <v>2666</v>
+      </c>
+      <c r="B2668" t="inlineStr">
+        <is>
+          <t>[6, -1, 0]</t>
+        </is>
+      </c>
+      <c r="C2668" t="n">
+        <v>14.68393866555818</v>
+      </c>
+    </row>
+    <row r="2669">
+      <c r="A2669" s="1" t="n">
+        <v>2667</v>
+      </c>
+      <c r="B2669" t="inlineStr">
+        <is>
+          <t>[6, 2, -2]</t>
+        </is>
+      </c>
+      <c r="C2669" t="n">
+        <v>14.17904465997703</v>
+      </c>
+    </row>
+    <row r="2670">
+      <c r="A2670" s="1" t="n">
+        <v>2668</v>
+      </c>
+      <c r="B2670" t="inlineStr">
+        <is>
+          <t>[7, 2, -1]</t>
+        </is>
+      </c>
+      <c r="C2670" t="n">
+        <v>14.48206661441366</v>
+      </c>
+    </row>
+    <row r="2671">
+      <c r="A2671" s="1" t="n">
+        <v>2669</v>
+      </c>
+      <c r="B2671" t="inlineStr">
+        <is>
+          <t>[7, 2, -2]</t>
+        </is>
+      </c>
+      <c r="C2671" t="n">
+        <v>14.2173922456564</v>
+      </c>
+    </row>
+    <row r="2672">
+      <c r="A2672" s="1" t="n">
+        <v>2670</v>
+      </c>
+      <c r="B2672" t="inlineStr">
+        <is>
+          <t>[6, 1, -2]</t>
+        </is>
+      </c>
+      <c r="C2672" t="n">
+        <v>14.44603305722203</v>
+      </c>
+    </row>
+    <row r="2673">
+      <c r="A2673" s="1" t="n">
+        <v>2671</v>
+      </c>
+      <c r="B2673" t="inlineStr">
+        <is>
+          <t>[7, 3, -1]</t>
+        </is>
+      </c>
+      <c r="C2673" t="n">
+        <v>14.35411352991226</v>
+      </c>
+    </row>
+    <row r="2674">
+      <c r="A2674" s="1" t="n">
+        <v>2672</v>
+      </c>
+      <c r="B2674" t="inlineStr">
+        <is>
+          <t>[5, 1, -3]</t>
+        </is>
+      </c>
+      <c r="C2674" t="n">
+        <v>14.0873682519899</v>
+      </c>
+    </row>
+    <row r="2675">
+      <c r="A2675" s="1" t="n">
+        <v>2673</v>
+      </c>
+      <c r="B2675" t="inlineStr">
+        <is>
+          <t>[6, 0, -2]</t>
+        </is>
+      </c>
+      <c r="C2675" t="n">
+        <v>14.69680375748036</v>
+      </c>
+    </row>
+    <row r="2676">
+      <c r="A2676" s="1" t="n">
+        <v>2674</v>
+      </c>
+      <c r="B2676" t="inlineStr">
+        <is>
+          <t>[4, 1, -4]</t>
+        </is>
+      </c>
+      <c r="C2676" t="n">
+        <v>14.74846607627088</v>
+      </c>
+    </row>
+    <row r="2677">
+      <c r="A2677" s="1" t="n">
+        <v>2675</v>
+      </c>
+      <c r="B2677" t="inlineStr">
+        <is>
+          <t>[6, 1, -3]</t>
+        </is>
+      </c>
+      <c r="C2677" t="n">
+        <v>14.37242159183272</v>
+      </c>
+    </row>
+    <row r="2678">
+      <c r="A2678" s="1" t="n">
+        <v>2676</v>
+      </c>
+      <c r="B2678" t="inlineStr">
+        <is>
+          <t>[5, 1, -4]</t>
+        </is>
+      </c>
+      <c r="C2678" t="n">
+        <v>14.07160385309347</v>
+      </c>
+    </row>
+    <row r="2679">
+      <c r="A2679" s="1" t="n">
+        <v>2677</v>
+      </c>
+      <c r="B2679" t="inlineStr">
+        <is>
+          <t>[7, 1, -2]</t>
+        </is>
+      </c>
+      <c r="C2679" t="n">
+        <v>14.61417565488894</v>
+      </c>
+    </row>
+    <row r="2680">
+      <c r="A2680" s="1" t="n">
+        <v>2678</v>
+      </c>
+      <c r="B2680" t="inlineStr">
+        <is>
+          <t>[6, 2, -3]</t>
+        </is>
+      </c>
+      <c r="C2680" t="n">
+        <v>14.09710607147242</v>
+      </c>
+    </row>
+    <row r="2681">
+      <c r="A2681" s="1" t="n">
+        <v>2679</v>
+      </c>
+      <c r="B2681" t="inlineStr">
+        <is>
+          <t>[5, 0, -4]</t>
+        </is>
+      </c>
+      <c r="C2681" t="n">
+        <v>14.10667670206983</v>
+      </c>
+    </row>
+    <row r="2682">
+      <c r="A2682" s="1" t="n">
+        <v>2680</v>
+      </c>
+      <c r="B2682" t="inlineStr">
+        <is>
+          <t>[7, 3, -2]</t>
+        </is>
+      </c>
+      <c r="C2682" t="n">
+        <v>14.08158525959602</v>
+      </c>
+    </row>
+    <row r="2683">
+      <c r="A2683" s="1" t="n">
+        <v>2681</v>
+      </c>
+      <c r="B2683" t="inlineStr">
+        <is>
+          <t>[7, 2, -3]</t>
+        </is>
+      </c>
+      <c r="C2683" t="n">
+        <v>14.14948773274629</v>
+      </c>
+    </row>
+    <row r="2684">
+      <c r="A2684" s="1" t="n">
+        <v>2682</v>
+      </c>
+      <c r="B2684" t="inlineStr">
+        <is>
+          <t>[7, 1, -3]</t>
+        </is>
+      </c>
+      <c r="C2684" t="n">
+        <v>14.57669807601333</v>
+      </c>
+    </row>
+    <row r="2685">
+      <c r="A2685" s="1" t="n">
+        <v>2683</v>
+      </c>
+      <c r="B2685" t="inlineStr">
+        <is>
+          <t>[7, 4, -1]</t>
+        </is>
+      </c>
+      <c r="C2685" t="n">
+        <v>14.42846118169403</v>
+      </c>
+    </row>
+    <row r="2686">
+      <c r="A2686" s="1" t="n">
+        <v>2684</v>
+      </c>
+      <c r="B2686" t="inlineStr">
+        <is>
+          <t>[4, 1, -5]</t>
+        </is>
+      </c>
+      <c r="C2686" t="n">
+        <v>14.75324286077575</v>
+      </c>
+    </row>
+    <row r="2687">
+      <c r="A2687" s="1" t="n">
+        <v>2685</v>
+      </c>
+      <c r="B2687" t="inlineStr">
+        <is>
+          <t>[4, -1, -4]</t>
+        </is>
+      </c>
+      <c r="C2687" t="n">
+        <v>14.16528305329324</v>
+      </c>
+    </row>
+    <row r="2688">
+      <c r="A2688" s="1" t="n">
+        <v>2686</v>
+      </c>
+      <c r="B2688" t="inlineStr">
+        <is>
+          <t>[6, 0, -3]</t>
+        </is>
+      </c>
+      <c r="C2688" t="n">
+        <v>14.68941130585876</v>
+      </c>
+    </row>
+    <row r="2689">
+      <c r="A2689" s="1" t="n">
+        <v>2687</v>
+      </c>
+      <c r="B2689" t="inlineStr">
+        <is>
+          <t>[6, 2, -4]</t>
+        </is>
+      </c>
+      <c r="C2689" t="n">
+        <v>14.09135419884067</v>
+      </c>
+    </row>
+    <row r="2690">
+      <c r="A2690" s="1" t="n">
+        <v>2688</v>
+      </c>
+      <c r="B2690" t="inlineStr">
+        <is>
+          <t>[4, 2, -5]</t>
+        </is>
+      </c>
+      <c r="C2690" t="n">
+        <v>14.2659314832134</v>
+      </c>
+    </row>
+    <row r="2691">
+      <c r="A2691" s="1" t="n">
+        <v>2689</v>
+      </c>
+      <c r="B2691" t="inlineStr">
+        <is>
+          <t>[3, 2, -5]</t>
+        </is>
+      </c>
+      <c r="C2691" t="n">
+        <v>14.60089951593799</v>
+      </c>
+    </row>
+    <row r="2692">
+      <c r="A2692" s="1" t="n">
+        <v>2690</v>
+      </c>
+      <c r="B2692" t="inlineStr">
+        <is>
+          <t>[4, 0, -5]</t>
+        </is>
+      </c>
+      <c r="C2692" t="n">
+        <v>14.34138825663538</v>
+      </c>
+    </row>
+    <row r="2693">
+      <c r="A2693" s="1" t="n">
+        <v>2691</v>
+      </c>
+      <c r="B2693" t="inlineStr">
+        <is>
+          <t>[6, 3, -4]</t>
+        </is>
+      </c>
+      <c r="C2693" t="n">
+        <v>14.02597880827112</v>
+      </c>
+    </row>
+    <row r="2694">
+      <c r="A2694" s="1" t="n">
+        <v>2692</v>
+      </c>
+      <c r="B2694" t="inlineStr">
+        <is>
+          <t>[7, 4, -2]</t>
+        </is>
+      </c>
+      <c r="C2694" t="n">
+        <v>14.10594468926304</v>
+      </c>
+    </row>
+    <row r="2695">
+      <c r="A2695" s="1" t="n">
+        <v>2693</v>
+      </c>
+      <c r="B2695" t="inlineStr">
+        <is>
+          <t>[7, 5, -1]</t>
+        </is>
+      </c>
+      <c r="C2695" t="n">
+        <v>14.39589684692051</v>
+      </c>
+    </row>
+    <row r="2696">
+      <c r="A2696" s="1" t="n">
+        <v>2694</v>
+      </c>
+      <c r="B2696" t="inlineStr">
+        <is>
+          <t>[6, 1, -4]</t>
+        </is>
+      </c>
+      <c r="C2696" t="n">
+        <v>14.36361946413093</v>
+      </c>
+    </row>
+    <row r="2697">
+      <c r="A2697" s="1" t="n">
+        <v>2695</v>
+      </c>
+      <c r="B2697" t="inlineStr">
+        <is>
+          <t>[5, 2, -5]</t>
+        </is>
+      </c>
+      <c r="C2697" t="n">
+        <v>14.10350166984395</v>
+      </c>
+    </row>
+    <row r="2698">
+      <c r="A2698" s="1" t="n">
+        <v>2696</v>
+      </c>
+      <c r="B2698" t="inlineStr">
+        <is>
+          <t>[7, 5, -2]</t>
+        </is>
+      </c>
+      <c r="C2698" t="n">
+        <v>14.08245932370426</v>
+      </c>
+    </row>
+    <row r="2699">
+      <c r="A2699" s="1" t="n">
+        <v>2697</v>
+      </c>
+      <c r="B2699" t="inlineStr">
+        <is>
+          <t>[7, 6, -1]</t>
+        </is>
+      </c>
+      <c r="C2699" t="n">
+        <v>14.36654541179482</v>
+      </c>
+    </row>
+    <row r="2700">
+      <c r="A2700" s="1" t="n">
+        <v>2698</v>
+      </c>
+      <c r="B2700" t="inlineStr">
+        <is>
+          <t>[7, 6, -2]</t>
+        </is>
+      </c>
+      <c r="C2700" t="n">
+        <v>14.06975517652374</v>
+      </c>
+    </row>
+    <row r="2701">
+      <c r="A2701" s="1" t="n">
+        <v>2699</v>
+      </c>
+      <c r="B2701" t="inlineStr">
+        <is>
+          <t>[7, 3, -4]</t>
+        </is>
+      </c>
+      <c r="C2701" t="n">
+        <v>14.00286896623215</v>
+      </c>
+    </row>
+    <row r="2702">
+      <c r="A2702" s="1" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B2702" t="inlineStr">
+        <is>
+          <t>[4, 2, -6]</t>
+        </is>
+      </c>
+      <c r="C2702" t="n">
+        <v>14.26554181851299</v>
+      </c>
+    </row>
+    <row r="2703">
+      <c r="A2703" s="1" t="n">
+        <v>2701</v>
+      </c>
+      <c r="B2703" t="inlineStr">
+        <is>
+          <t>[6, 4, -2]</t>
+        </is>
+      </c>
+      <c r="C2703" t="n">
+        <v>14.20489214363169</v>
+      </c>
+    </row>
+    <row r="2704">
+      <c r="A2704" s="1" t="n">
+        <v>2702</v>
+      </c>
+      <c r="B2704" t="inlineStr">
+        <is>
+          <t>[6, 4, -3]</t>
+        </is>
+      </c>
+      <c r="C2704" t="n">
+        <v>14.07331007859838</v>
+      </c>
+    </row>
+    <row r="2705">
+      <c r="A2705" s="1" t="n">
+        <v>2703</v>
+      </c>
+      <c r="B2705" t="inlineStr">
+        <is>
+          <t>[6, 3, -5]</t>
+        </is>
+      </c>
+      <c r="C2705" t="n">
+        <v>14.02735015649052</v>
+      </c>
+    </row>
+    <row r="2706">
+      <c r="A2706" s="1" t="n">
+        <v>2704</v>
+      </c>
+      <c r="B2706" t="inlineStr">
+        <is>
+          <t>[5, 3, -5]</t>
+        </is>
+      </c>
+      <c r="C2706" t="n">
+        <v>14.02477858107691</v>
+      </c>
+    </row>
+    <row r="2707">
+      <c r="A2707" s="1" t="n">
+        <v>2705</v>
+      </c>
+      <c r="B2707" t="inlineStr">
+        <is>
+          <t>[4, 3, -5]</t>
+        </is>
+      </c>
+      <c r="C2707" t="n">
+        <v>14.05039411182428</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
